--- a/Hamilton_Climate_Summary.xlsx
+++ b/Hamilton_Climate_Summary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/774bf3eaa451d94e/Documents/Class/HEAD/hamilton_climate_atlas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaeldias/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36A9A4B1-2CD7-46A9-915F-5889BF355546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F9F037-E941-CC49-AC09-2EB87FB23E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{294B4590-2098-4E00-94AD-CA770B64ACB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{294B4590-2098-4E00-94AD-CA770B64ACB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
@@ -130,6 +130,18 @@
   <si>
     <t>Max 3 Days Precipitation (Ensemble)</t>
   </si>
+  <si>
+    <t>Frost Days (Historical)</t>
+  </si>
+  <si>
+    <t>Frost Days (Ensemble)</t>
+  </si>
+  <si>
+    <t>Freeze-Thaw Cycles (Historical)</t>
+  </si>
+  <si>
+    <t>Freeze-Thaw Cycles (Ensemble)</t>
+  </si>
 </sst>
 </file>
 
@@ -144,12 +156,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,9 +182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,15 +521,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFBD2B7-6790-45D1-850D-F584978D5636}">
-  <dimension ref="A1:AE147"/>
+  <dimension ref="A1:AI147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="AG147" sqref="AG147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="32" max="32" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.5" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +630,20 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -698,8 +737,20 @@
       <c r="AE2" s="1">
         <v>50.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF2" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>137.29166666666666</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>66.166666666666671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1951</v>
       </c>
@@ -793,8 +844,20 @@
       <c r="AE3" s="1">
         <v>58.533333333333324</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF3" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>139.83333333333334</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>70.541666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1952</v>
       </c>
@@ -888,8 +951,20 @@
       <c r="AE4" s="1">
         <v>53.679166666666674</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF4" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>142.25</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>69.875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1953</v>
       </c>
@@ -983,8 +1058,20 @@
       <c r="AE5" s="1">
         <v>54.529166666666661</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF5" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>139.66666666666666</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>68.208333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1954</v>
       </c>
@@ -1078,8 +1165,20 @@
       <c r="AE6" s="1">
         <v>56.050000000000011</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF6" s="2">
+        <v>135</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>139.16666666666666</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>69.958333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1955</v>
       </c>
@@ -1173,8 +1272,20 @@
       <c r="AE7" s="1">
         <v>50.037499999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF7" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>139.33333333333334</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>68.041666666666671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1956</v>
       </c>
@@ -1268,8 +1379,20 @@
       <c r="AE8" s="1">
         <v>51.300000000000011</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF8" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>137.58333333333334</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>65.708333333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1957</v>
       </c>
@@ -1363,8 +1486,20 @@
       <c r="AE9" s="1">
         <v>50.037499999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF9" s="2">
+        <v>143</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>140.66666666666666</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>69.833333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1958</v>
       </c>
@@ -1458,8 +1593,20 @@
       <c r="AE10" s="1">
         <v>55.258333333333333</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF10" s="2">
+        <v>146</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>139.58333333333334</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>60</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>70.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1959</v>
       </c>
@@ -1553,8 +1700,20 @@
       <c r="AE11" s="1">
         <v>59.054166666666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF11" s="2">
+        <v>149</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>139.83333333333334</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>64.083333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1960</v>
       </c>
@@ -1648,8 +1807,20 @@
       <c r="AE12" s="1">
         <v>57.962500000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF12" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>136.58333333333334</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>68.958333333333329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1961</v>
       </c>
@@ -1743,8 +1914,20 @@
       <c r="AE13" s="1">
         <v>55.76250000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF13" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>138.375</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>66.708333333333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1962</v>
       </c>
@@ -1838,8 +2021,20 @@
       <c r="AE14" s="1">
         <v>51.224999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF14" s="2">
+        <v>150</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>138.79166666666666</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>68.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1963</v>
       </c>
@@ -1933,8 +2128,20 @@
       <c r="AE15" s="1">
         <v>47.116666666666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF15" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>142</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>72.333333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1964</v>
       </c>
@@ -2028,8 +2235,20 @@
       <c r="AE16" s="1">
         <v>52.662500000000016</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF16" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>142.16666666666666</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1965</v>
       </c>
@@ -2123,8 +2342,20 @@
       <c r="AE17" s="1">
         <v>58.124999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF17" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>147.625</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>70.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1966</v>
       </c>
@@ -2218,8 +2449,20 @@
       <c r="AE18" s="1">
         <v>52.366666666666667</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF18" s="2">
+        <v>145</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>143.375</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>72.833333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1967</v>
       </c>
@@ -2313,8 +2556,20 @@
       <c r="AE19" s="1">
         <v>50.120833333333337</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF19" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>140</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>68.833333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1968</v>
       </c>
@@ -2408,8 +2663,20 @@
       <c r="AE20" s="1">
         <v>55.699999999999989</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF20" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>146.375</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>56</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>72.791666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1969</v>
       </c>
@@ -2503,8 +2770,20 @@
       <c r="AE21" s="1">
         <v>58.741666666666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF21" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>141.08333333333334</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>63</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1970</v>
       </c>
@@ -2598,8 +2877,20 @@
       <c r="AE22" s="1">
         <v>49.908333333333324</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF22" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>141.125</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>53</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>68.458333333333329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1971</v>
       </c>
@@ -2693,8 +2984,20 @@
       <c r="AE23" s="1">
         <v>51.220833333333331</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF23" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>142.875</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1972</v>
       </c>
@@ -2788,8 +3091,20 @@
       <c r="AE24" s="1">
         <v>48.070833333333333</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF24" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>138.83333333333334</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>69.833333333333329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1973</v>
       </c>
@@ -2883,8 +3198,20 @@
       <c r="AE25" s="1">
         <v>61.029166666666669</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF25" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>138.29166666666666</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>53</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>67.041666666666671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1974</v>
       </c>
@@ -2978,8 +3305,20 @@
       <c r="AE26" s="1">
         <v>48.179166666666667</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF26" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>140.66666666666666</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>70.916666666666671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1975</v>
       </c>
@@ -3073,8 +3412,20 @@
       <c r="AE27" s="1">
         <v>58.783333333333324</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF27" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>143.08333333333334</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>69.083333333333329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1976</v>
       </c>
@@ -3168,8 +3519,20 @@
       <c r="AE28" s="1">
         <v>53.729166666666664</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF28" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>141.625</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>68.916666666666671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1977</v>
       </c>
@@ -3263,8 +3626,20 @@
       <c r="AE29" s="1">
         <v>56.045833333333327</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF29" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>138.25</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>64.833333333333329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1978</v>
       </c>
@@ -3358,8 +3733,20 @@
       <c r="AE30" s="1">
         <v>55.054166666666674</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF30" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>140.75</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>59</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>70.791666666666671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1979</v>
       </c>
@@ -3453,8 +3840,20 @@
       <c r="AE31" s="1">
         <v>51.958333333333321</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF31" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>134.29166666666666</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>53</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>67.541666666666671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1980</v>
       </c>
@@ -3548,8 +3947,20 @@
       <c r="AE32" s="1">
         <v>51.083333333333336</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF32" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>136.375</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>55</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>65.916666666666671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1981</v>
       </c>
@@ -3643,8 +4054,20 @@
       <c r="AE33" s="1">
         <v>50.31666666666667</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF33" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>131.08333333333334</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>64.083333333333329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1982</v>
       </c>
@@ -3738,8 +4161,20 @@
       <c r="AE34" s="1">
         <v>52.412499999999987</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF34" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>132.95833333333334</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>61</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>66.833333333333329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1983</v>
       </c>
@@ -3833,8 +4268,20 @@
       <c r="AE35" s="1">
         <v>53.300000000000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF35" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>140.625</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>64</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>67.916666666666671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1984</v>
       </c>
@@ -3928,8 +4375,20 @@
       <c r="AE36" s="1">
         <v>49.995833333333337</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF36" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>138.91666666666666</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>65.666666666666671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1985</v>
       </c>
@@ -4023,8 +4482,20 @@
       <c r="AE37" s="1">
         <v>52.45000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF37" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>139.29166666666666</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>55</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>67.833333333333329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1986</v>
       </c>
@@ -4118,8 +4589,20 @@
       <c r="AE38" s="1">
         <v>51.504166666666663</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF38" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>134.95833333333334</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>65</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>68.791666666666671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1987</v>
       </c>
@@ -4213,8 +4696,20 @@
       <c r="AE39" s="1">
         <v>61.129166666666663</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF39" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>134.45833333333334</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>66.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1988</v>
       </c>
@@ -4308,8 +4803,20 @@
       <c r="AE40" s="1">
         <v>54.01250000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF40" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>137.41666666666666</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>65.041666666666671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1989</v>
       </c>
@@ -4403,8 +4910,20 @@
       <c r="AE41" s="1">
         <v>51.679166666666667</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF41" s="2">
+        <v>145</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>132.95833333333334</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>65</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>69.458333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1990</v>
       </c>
@@ -4498,8 +5017,20 @@
       <c r="AE42" s="1">
         <v>56.679166666666674</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF42" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>134.20833333333334</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>66.875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1991</v>
       </c>
@@ -4593,8 +5124,20 @@
       <c r="AE43" s="1">
         <v>62.67499999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF43" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>131.04166666666666</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>68</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1992</v>
       </c>
@@ -4688,8 +5231,20 @@
       <c r="AE44" s="1">
         <v>51.387499999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF44" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>139.375</v>
+      </c>
+      <c r="AH44" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>66.375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1993</v>
       </c>
@@ -4783,8 +5338,20 @@
       <c r="AE45" s="1">
         <v>58.608333333333341</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF45" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>132.625</v>
+      </c>
+      <c r="AH45" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI45" s="3">
+        <v>65.541666666666671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1994</v>
       </c>
@@ -4878,8 +5445,20 @@
       <c r="AE46" s="1">
         <v>56.883333333333333</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF46" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>130.16666666666666</v>
+      </c>
+      <c r="AH46" s="2">
+        <v>62</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>65.041666666666671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1995</v>
       </c>
@@ -4973,8 +5552,20 @@
       <c r="AE47" s="1">
         <v>51.92499999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF47" s="2">
+        <v>146</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>132.375</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>63</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1996</v>
       </c>
@@ -5068,8 +5659,20 @@
       <c r="AE48" s="1">
         <v>48.99583333333333</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF48" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>129.95833333333334</v>
+      </c>
+      <c r="AH48" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1997</v>
       </c>
@@ -5163,8 +5766,20 @@
       <c r="AE49" s="1">
         <v>55.225000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF49" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>131.25</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI49" s="3">
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1998</v>
       </c>
@@ -5258,8 +5873,20 @@
       <c r="AE50" s="1">
         <v>53.795833333333327</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF50" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>132.875</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI50" s="3">
+        <v>68.833333333333329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1999</v>
       </c>
@@ -5353,8 +5980,20 @@
       <c r="AE51" s="1">
         <v>56.616666666666653</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF51" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>127.75</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI51" s="3">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2000</v>
       </c>
@@ -5448,8 +6087,20 @@
       <c r="AE52" s="1">
         <v>58.641666666666673</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF52" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>128.75</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>57</v>
+      </c>
+      <c r="AI52" s="3">
+        <v>68.125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2001</v>
       </c>
@@ -5543,8 +6194,20 @@
       <c r="AE53" s="1">
         <v>52.800000000000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF53" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>126.66666666666667</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI53" s="3">
+        <v>62.583333333333336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2002</v>
       </c>
@@ -5638,8 +6301,20 @@
       <c r="AE54" s="1">
         <v>55.491666666666667</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF54" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>126.66666666666667</v>
+      </c>
+      <c r="AH54" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI54" s="3">
+        <v>64.708333333333329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2003</v>
       </c>
@@ -5733,8 +6408,20 @@
       <c r="AE55" s="1">
         <v>58.05833333333333</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF55" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG55" s="3">
+        <v>125.66666666666667</v>
+      </c>
+      <c r="AH55" s="2">
+        <v>64</v>
+      </c>
+      <c r="AI55" s="3">
+        <v>62.333333333333336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2004</v>
       </c>
@@ -5828,8 +6515,20 @@
       <c r="AE56" s="1">
         <v>63.19166666666667</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF56" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG56" s="3">
+        <v>128.875</v>
+      </c>
+      <c r="AH56" s="2">
+        <v>66</v>
+      </c>
+      <c r="AI56" s="3">
+        <v>64.375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2005</v>
       </c>
@@ -5923,8 +6622,20 @@
       <c r="AE57" s="1">
         <v>53.466666666666661</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF57" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG57" s="3">
+        <v>128.625</v>
+      </c>
+      <c r="AH57" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI57" s="3">
+        <v>62.958333333333336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2006</v>
       </c>
@@ -6018,8 +6729,20 @@
       <c r="AE58" s="1">
         <v>55.050000000000011</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF58" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>128.125</v>
+      </c>
+      <c r="AH58" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI58" s="3">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2007</v>
       </c>
@@ -6113,8 +6836,20 @@
       <c r="AE59" s="1">
         <v>59.179166666666674</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF59" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG59" s="3">
+        <v>128.375</v>
+      </c>
+      <c r="AH59" s="2">
+        <v>57</v>
+      </c>
+      <c r="AI59" s="3">
+        <v>66.291666666666671</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2008</v>
       </c>
@@ -6208,8 +6943,20 @@
       <c r="AE60" s="1">
         <v>69.041666666666671</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF60" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG60" s="3">
+        <v>120.33333333333333</v>
+      </c>
+      <c r="AH60" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI60" s="3">
+        <v>63.583333333333336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2009</v>
       </c>
@@ -6303,8 +7050,20 @@
       <c r="AE61" s="1">
         <v>55.204166666666659</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF61" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>125.75</v>
+      </c>
+      <c r="AH61" s="2">
+        <v>59</v>
+      </c>
+      <c r="AI61" s="3">
+        <v>64.416666666666671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2010</v>
       </c>
@@ -6398,8 +7157,20 @@
       <c r="AE62" s="1">
         <v>54.94166666666667</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF62" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>122.25</v>
+      </c>
+      <c r="AH62" s="2">
+        <v>54</v>
+      </c>
+      <c r="AI62" s="3">
+        <v>59.416666666666664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -6493,8 +7264,20 @@
       <c r="AE63" s="1">
         <v>53.250000000000021</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF63" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>118.83333333333333</v>
+      </c>
+      <c r="AH63" s="2">
+        <v>57</v>
+      </c>
+      <c r="AI63" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2012</v>
       </c>
@@ -6588,8 +7371,20 @@
       <c r="AE64" s="1">
         <v>59.729166666666686</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF64" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>117.375</v>
+      </c>
+      <c r="AH64" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI64" s="3">
+        <v>62.125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2013</v>
       </c>
@@ -6683,8 +7478,20 @@
       <c r="AE65" s="1">
         <v>63.420833333333341</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF65" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>121.625</v>
+      </c>
+      <c r="AH65" s="2">
+        <v>61</v>
+      </c>
+      <c r="AI65" s="3">
+        <v>64.416666666666671</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2014</v>
       </c>
@@ -6750,8 +7557,14 @@
       <c r="AE66" s="1">
         <v>54.074999999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG66" s="3">
+        <v>115.70833333333333</v>
+      </c>
+      <c r="AI66" s="3">
+        <v>61.708333333333336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -6817,8 +7630,14 @@
       <c r="AE67" s="1">
         <v>53.229166666666657</v>
       </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG67" s="3">
+        <v>121.54166666666667</v>
+      </c>
+      <c r="AI67" s="3">
+        <v>63.416666666666664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2016</v>
       </c>
@@ -6884,8 +7703,14 @@
       <c r="AE68" s="1">
         <v>61.979166666666664</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG68" s="3">
+        <v>124.25</v>
+      </c>
+      <c r="AI68" s="3">
+        <v>62.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2017</v>
       </c>
@@ -6951,8 +7776,14 @@
       <c r="AE69" s="1">
         <v>59.745833333333337</v>
       </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG69" s="3">
+        <v>116.75</v>
+      </c>
+      <c r="AI69" s="3">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -7018,8 +7849,14 @@
       <c r="AE70" s="1">
         <v>57.379166666666656</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG70" s="3">
+        <v>118.79166666666667</v>
+      </c>
+      <c r="AI70" s="3">
+        <v>65.333333333333329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2019</v>
       </c>
@@ -7085,8 +7922,14 @@
       <c r="AE71" s="1">
         <v>58.841666666666676</v>
       </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG71" s="3">
+        <v>119</v>
+      </c>
+      <c r="AI71" s="3">
+        <v>65.333333333333329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -7152,8 +7995,14 @@
       <c r="AE72" s="1">
         <v>56.891666666666652</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG72" s="3">
+        <v>120.25</v>
+      </c>
+      <c r="AI72" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -7219,8 +8068,14 @@
       <c r="AE73" s="1">
         <v>60.824999999999989</v>
       </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG73" s="3">
+        <v>119.875</v>
+      </c>
+      <c r="AI73" s="3">
+        <v>59.333333333333336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2022</v>
       </c>
@@ -7286,8 +8141,14 @@
       <c r="AE74" s="1">
         <v>54.841666666666661</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG74" s="3">
+        <v>116.20833333333333</v>
+      </c>
+      <c r="AI74" s="3">
+        <v>59.458333333333336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2023</v>
       </c>
@@ -7353,8 +8214,14 @@
       <c r="AE75" s="1">
         <v>49.258333333333326</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG75" s="3">
+        <v>119.5</v>
+      </c>
+      <c r="AI75" s="3">
+        <v>59.916666666666664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2024</v>
       </c>
@@ -7420,8 +8287,14 @@
       <c r="AE76" s="1">
         <v>57.637499999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG76" s="3">
+        <v>112.08333333333333</v>
+      </c>
+      <c r="AI76" s="3">
+        <v>59.416666666666664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2025</v>
       </c>
@@ -7487,8 +8360,14 @@
       <c r="AE77" s="1">
         <v>60.95000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG77" s="3">
+        <v>116.41666666666667</v>
+      </c>
+      <c r="AI77" s="3">
+        <v>60.125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2026</v>
       </c>
@@ -7554,8 +8433,14 @@
       <c r="AE78" s="1">
         <v>57.60833333333332</v>
       </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG78" s="3">
+        <v>119.79166666666667</v>
+      </c>
+      <c r="AI78" s="3">
+        <v>61.625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2027</v>
       </c>
@@ -7621,8 +8506,14 @@
       <c r="AE79" s="1">
         <v>56.020833333333336</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG79" s="3">
+        <v>118.79166666666667</v>
+      </c>
+      <c r="AI79" s="3">
+        <v>60.583333333333336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2028</v>
       </c>
@@ -7688,8 +8579,14 @@
       <c r="AE80" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG80" s="3">
+        <v>115.625</v>
+      </c>
+      <c r="AI80" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2029</v>
       </c>
@@ -7755,8 +8652,14 @@
       <c r="AE81" s="1">
         <v>65.354166666666643</v>
       </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG81" s="3">
+        <v>110.95833333333333</v>
+      </c>
+      <c r="AI81" s="3">
+        <v>56.166666666666664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2030</v>
       </c>
@@ -7822,8 +8725,14 @@
       <c r="AE82" s="1">
         <v>61.441666666666656</v>
       </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG82" s="3">
+        <v>109.58333333333333</v>
+      </c>
+      <c r="AI82" s="3">
+        <v>57.541666666666664</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2031</v>
       </c>
@@ -7889,8 +8798,14 @@
       <c r="AE83" s="1">
         <v>53.925000000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG83" s="3">
+        <v>113.75</v>
+      </c>
+      <c r="AI83" s="3">
+        <v>60.875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2032</v>
       </c>
@@ -7956,8 +8871,14 @@
       <c r="AE84" s="1">
         <v>52.966666666666669</v>
       </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG84" s="3">
+        <v>109.83333333333333</v>
+      </c>
+      <c r="AI84" s="3">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2033</v>
       </c>
@@ -8023,8 +8944,14 @@
       <c r="AE85" s="1">
         <v>57.687499999999993</v>
       </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG85" s="3">
+        <v>113.66666666666667</v>
+      </c>
+      <c r="AI85" s="3">
+        <v>61.166666666666664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2034</v>
       </c>
@@ -8090,8 +9017,14 @@
       <c r="AE86" s="1">
         <v>58.833333333333343</v>
       </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG86" s="3">
+        <v>110</v>
+      </c>
+      <c r="AI86" s="3">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2035</v>
       </c>
@@ -8157,8 +9090,14 @@
       <c r="AE87" s="1">
         <v>56.133333333333333</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG87" s="3">
+        <v>108.75</v>
+      </c>
+      <c r="AI87" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2036</v>
       </c>
@@ -8224,8 +9163,14 @@
       <c r="AE88" s="1">
         <v>52.333333333333336</v>
       </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG88" s="3">
+        <v>110.75</v>
+      </c>
+      <c r="AI88" s="3">
+        <v>60.041666666666664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2037</v>
       </c>
@@ -8291,8 +9236,14 @@
       <c r="AE89" s="1">
         <v>60.087500000000006</v>
       </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG89" s="3">
+        <v>107.45833333333333</v>
+      </c>
+      <c r="AI89" s="3">
+        <v>60.583333333333336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2038</v>
       </c>
@@ -8358,8 +9309,14 @@
       <c r="AE90" s="1">
         <v>58.433333333333344</v>
       </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG90" s="3">
+        <v>106</v>
+      </c>
+      <c r="AI90" s="3">
+        <v>58.541666666666664</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2039</v>
       </c>
@@ -8425,8 +9382,14 @@
       <c r="AE91" s="1">
         <v>64.24166666666666</v>
       </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG91" s="3">
+        <v>109.125</v>
+      </c>
+      <c r="AI91" s="3">
+        <v>59.958333333333336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2040</v>
       </c>
@@ -8492,8 +9455,14 @@
       <c r="AE92" s="1">
         <v>55.041666666666679</v>
       </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG92" s="3">
+        <v>105.25</v>
+      </c>
+      <c r="AI92" s="3">
+        <v>58.541666666666664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2041</v>
       </c>
@@ -8559,8 +9528,14 @@
       <c r="AE93" s="1">
         <v>62.599999999999987</v>
       </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG93" s="3">
+        <v>103.20833333333333</v>
+      </c>
+      <c r="AI93" s="3">
+        <v>59.541666666666664</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2042</v>
       </c>
@@ -8626,8 +9601,14 @@
       <c r="AE94" s="1">
         <v>61.833333333333336</v>
       </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG94" s="3">
+        <v>99.958333333333329</v>
+      </c>
+      <c r="AI94" s="3">
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2043</v>
       </c>
@@ -8693,8 +9674,14 @@
       <c r="AE95" s="1">
         <v>63.491666666666674</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG95" s="3">
+        <v>95.5</v>
+      </c>
+      <c r="AI95" s="3">
+        <v>54.583333333333336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2044</v>
       </c>
@@ -8760,8 +9747,14 @@
       <c r="AE96" s="1">
         <v>55.954166666666673</v>
       </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG96" s="3">
+        <v>98.541666666666671</v>
+      </c>
+      <c r="AI96" s="3">
+        <v>55.916666666666664</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2045</v>
       </c>
@@ -8827,8 +9820,14 @@
       <c r="AE97" s="1">
         <v>53.845833333333331</v>
       </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG97" s="3">
+        <v>100.33333333333333</v>
+      </c>
+      <c r="AI97" s="3">
+        <v>55.208333333333336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2046</v>
       </c>
@@ -8894,8 +9893,14 @@
       <c r="AE98" s="1">
         <v>60.779166666666661</v>
       </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG98" s="3">
+        <v>101</v>
+      </c>
+      <c r="AI98" s="3">
+        <v>56.041666666666664</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2047</v>
       </c>
@@ -8961,8 +9966,14 @@
       <c r="AE99" s="1">
         <v>59.316666666666663</v>
       </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG99" s="3">
+        <v>97</v>
+      </c>
+      <c r="AI99" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2048</v>
       </c>
@@ -9028,8 +10039,14 @@
       <c r="AE100" s="1">
         <v>56.599999999999987</v>
       </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG100" s="3">
+        <v>94.416666666666671</v>
+      </c>
+      <c r="AI100" s="3">
+        <v>53.666666666666664</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2049</v>
       </c>
@@ -9095,8 +10112,14 @@
       <c r="AE101" s="1">
         <v>61.81666666666667</v>
       </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG101" s="3">
+        <v>97.75</v>
+      </c>
+      <c r="AI101" s="3">
+        <v>56.458333333333336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2050</v>
       </c>
@@ -9162,8 +10185,14 @@
       <c r="AE102" s="1">
         <v>59.974999999999994</v>
       </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG102" s="3">
+        <v>93.25</v>
+      </c>
+      <c r="AI102" s="3">
+        <v>54.541666666666664</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2051</v>
       </c>
@@ -9229,8 +10258,14 @@
       <c r="AE103" s="1">
         <v>65.575000000000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG103" s="3">
+        <v>94.375</v>
+      </c>
+      <c r="AI103" s="3">
+        <v>55.583333333333336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2052</v>
       </c>
@@ -9296,8 +10331,14 @@
       <c r="AE104" s="1">
         <v>56.016666666666652</v>
       </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG104" s="3">
+        <v>93.083333333333329</v>
+      </c>
+      <c r="AI104" s="3">
+        <v>52.458333333333336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2053</v>
       </c>
@@ -9363,8 +10404,14 @@
       <c r="AE105" s="1">
         <v>62.25416666666667</v>
       </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG105" s="3">
+        <v>86.291666666666671</v>
+      </c>
+      <c r="AI105" s="3">
+        <v>47.166666666666664</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2054</v>
       </c>
@@ -9430,8 +10477,14 @@
       <c r="AE106" s="1">
         <v>54.820833333333347</v>
       </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG106" s="3">
+        <v>88.958333333333329</v>
+      </c>
+      <c r="AI106" s="3">
+        <v>50.958333333333336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2055</v>
       </c>
@@ -9497,8 +10550,14 @@
       <c r="AE107" s="1">
         <v>62.500000000000007</v>
       </c>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG107" s="3">
+        <v>92.958333333333329</v>
+      </c>
+      <c r="AI107" s="3">
+        <v>55.125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2056</v>
       </c>
@@ -9564,8 +10623,14 @@
       <c r="AE108" s="1">
         <v>53.375</v>
       </c>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG108" s="3">
+        <v>89.958333333333329</v>
+      </c>
+      <c r="AI108" s="3">
+        <v>51.958333333333336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2057</v>
       </c>
@@ -9631,8 +10696,14 @@
       <c r="AE109" s="1">
         <v>63.991666666666674</v>
       </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG109" s="3">
+        <v>93.375</v>
+      </c>
+      <c r="AI109" s="3">
+        <v>53.708333333333336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2058</v>
       </c>
@@ -9698,8 +10769,14 @@
       <c r="AE110" s="1">
         <v>64.533333333333331</v>
       </c>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG110" s="3">
+        <v>87.625</v>
+      </c>
+      <c r="AI110" s="3">
+        <v>52.375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2059</v>
       </c>
@@ -9765,8 +10842,14 @@
       <c r="AE111" s="1">
         <v>66.879166666666663</v>
       </c>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG111" s="3">
+        <v>84</v>
+      </c>
+      <c r="AI111" s="3">
+        <v>49.625</v>
+      </c>
+    </row>
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2060</v>
       </c>
@@ -9832,8 +10915,14 @@
       <c r="AE112" s="1">
         <v>61.254166666666663</v>
       </c>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG112" s="3">
+        <v>86.458333333333329</v>
+      </c>
+      <c r="AI112" s="3">
+        <v>52.166666666666664</v>
+      </c>
+    </row>
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2061</v>
       </c>
@@ -9899,8 +10988,14 @@
       <c r="AE113" s="1">
         <v>69.283333333333346</v>
       </c>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG113" s="3">
+        <v>86.791666666666671</v>
+      </c>
+      <c r="AI113" s="3">
+        <v>51.291666666666664</v>
+      </c>
+    </row>
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2062</v>
       </c>
@@ -9966,8 +11061,14 @@
       <c r="AE114" s="1">
         <v>62.87083333333333</v>
       </c>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG114" s="3">
+        <v>87.416666666666671</v>
+      </c>
+      <c r="AI114" s="3">
+        <v>49.791666666666664</v>
+      </c>
+    </row>
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2063</v>
       </c>
@@ -10033,8 +11134,14 @@
       <c r="AE115" s="1">
         <v>63.20416666666668</v>
       </c>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG115" s="3">
+        <v>78.625</v>
+      </c>
+      <c r="AI115" s="3">
+        <v>47.541666666666664</v>
+      </c>
+    </row>
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2064</v>
       </c>
@@ -10100,8 +11207,14 @@
       <c r="AE116" s="1">
         <v>55.295833333333327</v>
       </c>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG116" s="3">
+        <v>81.583333333333329</v>
+      </c>
+      <c r="AI116" s="3">
+        <v>49.416666666666664</v>
+      </c>
+    </row>
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2065</v>
       </c>
@@ -10167,8 +11280,14 @@
       <c r="AE117" s="1">
         <v>60.808333333333337</v>
       </c>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG117" s="3">
+        <v>81.875</v>
+      </c>
+      <c r="AI117" s="3">
+        <v>48.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2066</v>
       </c>
@@ -10234,8 +11353,14 @@
       <c r="AE118" s="1">
         <v>69.104166666666671</v>
       </c>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG118" s="3">
+        <v>83.208333333333329</v>
+      </c>
+      <c r="AI118" s="3">
+        <v>51.375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2067</v>
       </c>
@@ -10301,8 +11426,14 @@
       <c r="AE119" s="1">
         <v>63.104166666666686</v>
       </c>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG119" s="3">
+        <v>86.541666666666671</v>
+      </c>
+      <c r="AI119" s="3">
+        <v>49.833333333333336</v>
+      </c>
+    </row>
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2068</v>
       </c>
@@ -10368,8 +11499,14 @@
       <c r="AE120" s="1">
         <v>61.008333333333326</v>
       </c>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG120" s="3">
+        <v>78.25</v>
+      </c>
+      <c r="AI120" s="3">
+        <v>47.166666666666664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2069</v>
       </c>
@@ -10435,8 +11572,14 @@
       <c r="AE121" s="1">
         <v>66.591666666666669</v>
       </c>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG121" s="3">
+        <v>77.166666666666671</v>
+      </c>
+      <c r="AI121" s="3">
+        <v>47.416666666666664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2070</v>
       </c>
@@ -10502,8 +11645,14 @@
       <c r="AE122" s="1">
         <v>55.149999999999984</v>
       </c>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG122" s="3">
+        <v>70.833333333333329</v>
+      </c>
+      <c r="AI122" s="3">
+        <v>45.666666666666664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2071</v>
       </c>
@@ -10569,8 +11718,14 @@
       <c r="AE123" s="1">
         <v>63.024999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG123" s="3">
+        <v>74.541666666666671</v>
+      </c>
+      <c r="AI123" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2072</v>
       </c>
@@ -10636,8 +11791,14 @@
       <c r="AE124" s="1">
         <v>61.162500000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG124" s="3">
+        <v>78.916666666666671</v>
+      </c>
+      <c r="AI124" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2073</v>
       </c>
@@ -10703,8 +11864,14 @@
       <c r="AE125" s="1">
         <v>63.87916666666667</v>
       </c>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG125" s="3">
+        <v>73.75</v>
+      </c>
+      <c r="AI125" s="3">
+        <v>46.375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2074</v>
       </c>
@@ -10770,8 +11937,14 @@
       <c r="AE126" s="1">
         <v>60.729166666666657</v>
       </c>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG126" s="3">
+        <v>73.208333333333329</v>
+      </c>
+      <c r="AI126" s="3">
+        <v>45.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2075</v>
       </c>
@@ -10837,8 +12010,14 @@
       <c r="AE127" s="1">
         <v>59.716666666666661</v>
       </c>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG127" s="3">
+        <v>73.25</v>
+      </c>
+      <c r="AI127" s="3">
+        <v>46.291666666666664</v>
+      </c>
+    </row>
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2076</v>
       </c>
@@ -10904,8 +12083,14 @@
       <c r="AE128" s="1">
         <v>65.179166666666674</v>
       </c>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG128" s="3">
+        <v>75.333333333333329</v>
+      </c>
+      <c r="AI128" s="3">
+        <v>48.333333333333336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2077</v>
       </c>
@@ -10971,8 +12156,14 @@
       <c r="AE129" s="1">
         <v>63.29999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG129" s="3">
+        <v>74.583333333333329</v>
+      </c>
+      <c r="AI129" s="3">
+        <v>45.208333333333336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2078</v>
       </c>
@@ -11038,8 +12229,14 @@
       <c r="AE130" s="1">
         <v>63.116666666666681</v>
       </c>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG130" s="3">
+        <v>72.875</v>
+      </c>
+      <c r="AI130" s="3">
+        <v>45.833333333333336</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2079</v>
       </c>
@@ -11105,8 +12302,14 @@
       <c r="AE131" s="1">
         <v>68.458333333333343</v>
       </c>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG131" s="3">
+        <v>65.416666666666671</v>
+      </c>
+      <c r="AI131" s="3">
+        <v>42.416666666666664</v>
+      </c>
+    </row>
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2080</v>
       </c>
@@ -11172,8 +12375,14 @@
       <c r="AE132" s="1">
         <v>70.15000000000002</v>
       </c>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG132" s="3">
+        <v>69.208333333333329</v>
+      </c>
+      <c r="AI132" s="3">
+        <v>44.291666666666664</v>
+      </c>
+    </row>
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2081</v>
       </c>
@@ -11239,8 +12448,14 @@
       <c r="AE133" s="1">
         <v>66.899999999999991</v>
       </c>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG133" s="3">
+        <v>69</v>
+      </c>
+      <c r="AI133" s="3">
+        <v>45.041666666666664</v>
+      </c>
+    </row>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2082</v>
       </c>
@@ -11306,8 +12521,14 @@
       <c r="AE134" s="1">
         <v>66.037500000000009</v>
       </c>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG134" s="3">
+        <v>60.541666666666664</v>
+      </c>
+      <c r="AI134" s="3">
+        <v>37.833333333333336</v>
+      </c>
+    </row>
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2083</v>
       </c>
@@ -11373,8 +12594,14 @@
       <c r="AE135" s="1">
         <v>65.79583333333332</v>
       </c>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG135" s="3">
+        <v>65</v>
+      </c>
+      <c r="AI135" s="3">
+        <v>42.041666666666664</v>
+      </c>
+    </row>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2084</v>
       </c>
@@ -11440,8 +12667,14 @@
       <c r="AE136" s="1">
         <v>70.866666666666674</v>
       </c>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG136" s="3">
+        <v>66.958333333333329</v>
+      </c>
+      <c r="AI136" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2085</v>
       </c>
@@ -11507,8 +12740,14 @@
       <c r="AE137" s="1">
         <v>70.825000000000003</v>
       </c>
-    </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG137" s="3">
+        <v>64.333333333333329</v>
+      </c>
+      <c r="AI137" s="3">
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2086</v>
       </c>
@@ -11574,8 +12813,14 @@
       <c r="AE138" s="1">
         <v>61.045833333333327</v>
       </c>
-    </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG138" s="3">
+        <v>71.333333333333329</v>
+      </c>
+      <c r="AI138" s="3">
+        <v>45.291666666666664</v>
+      </c>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2087</v>
       </c>
@@ -11641,8 +12886,14 @@
       <c r="AE139" s="1">
         <v>74.137500000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG139" s="3">
+        <v>66.833333333333329</v>
+      </c>
+      <c r="AI139" s="3">
+        <v>43.208333333333336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2088</v>
       </c>
@@ -11708,8 +12959,14 @@
       <c r="AE140" s="1">
         <v>66.504166666666649</v>
       </c>
-    </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG140" s="3">
+        <v>62.708333333333336</v>
+      </c>
+      <c r="AI140" s="3">
+        <v>40.083333333333336</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2089</v>
       </c>
@@ -11775,8 +13032,14 @@
       <c r="AE141" s="1">
         <v>68.91249999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG141" s="3">
+        <v>62</v>
+      </c>
+      <c r="AI141" s="3">
+        <v>38.166666666666664</v>
+      </c>
+    </row>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2090</v>
       </c>
@@ -11842,8 +13105,14 @@
       <c r="AE142" s="1">
         <v>68.237499999999997</v>
       </c>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG142" s="3">
+        <v>61.791666666666664</v>
+      </c>
+      <c r="AI142" s="3">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2091</v>
       </c>
@@ -11909,8 +13178,14 @@
       <c r="AE143" s="1">
         <v>67.595833333333331</v>
       </c>
-    </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG143" s="3">
+        <v>59</v>
+      </c>
+      <c r="AI143" s="3">
+        <v>38.416666666666664</v>
+      </c>
+    </row>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2092</v>
       </c>
@@ -11976,8 +13251,14 @@
       <c r="AE144" s="1">
         <v>66.770833333333343</v>
       </c>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG144" s="3">
+        <v>54.458333333333336</v>
+      </c>
+      <c r="AI144" s="3">
+        <v>34.208333333333336</v>
+      </c>
+    </row>
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2093</v>
       </c>
@@ -12043,8 +13324,14 @@
       <c r="AE145" s="1">
         <v>62.533333333333331</v>
       </c>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG145" s="3">
+        <v>63.958333333333336</v>
+      </c>
+      <c r="AI145" s="3">
+        <v>40.375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2094</v>
       </c>
@@ -12110,8 +13397,14 @@
       <c r="AE146" s="1">
         <v>57.595833333333331</v>
       </c>
-    </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG146" s="3">
+        <v>58</v>
+      </c>
+      <c r="AI146" s="3">
+        <v>37.208333333333336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2095</v>
       </c>
@@ -12176,6 +13469,12 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1">
         <v>59.041666666666679</v>
+      </c>
+      <c r="AG147" s="3">
+        <v>60.875</v>
+      </c>
+      <c r="AI147" s="3">
+        <v>38.291666666666664</v>
       </c>
     </row>
   </sheetData>
